--- a/BOMs/Bill of Materials-AIRZAI_LID_BD_REVB Sheet1.xlsx
+++ b/BOMs/Bill of Materials-AIRZAI_LID_BD_REVB Sheet1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prajeeth\OneDrive\Desktop\BOM LIDBoard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prajeeth\OneDrive\Weekly updates\GitHub\Airzai-Hardware\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="8" documentId="8_{4699E28C-B835-4BF7-8057-1744B813AE24}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{68E00369-6CE8-4F2D-8A18-E33A6DE37554}"/>
@@ -695,7 +695,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
